--- a/Scrapy/yellowpages/where.xlsx
+++ b/Scrapy/yellowpages/where.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\leadgeneration\yp-scraper\Scrapy\yellowpages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7847102B-AE25-4F63-A431-4A6839437EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4FCD56-F865-4B9A-A016-0EB0E5C1ED83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>where</t>
   </si>
   <si>
-    <t>calgary ab</t>
+    <t>Alberta+ab</t>
+  </si>
+  <si>
+    <t>Manitoba+mb</t>
+  </si>
+  <si>
+    <t>Ontario+on</t>
+  </si>
+  <si>
+    <t>Quebec+qc</t>
+  </si>
+  <si>
+    <t>Saskatchewan+sk</t>
+  </si>
+  <si>
+    <t>Nunavut+nu</t>
+  </si>
+  <si>
+    <t>Yukon+yt</t>
+  </si>
+  <si>
+    <t>British-Columbia+bc</t>
+  </si>
+  <si>
+    <t>New-Brunswick+nb</t>
+  </si>
+  <si>
+    <t>Newfoundland-and-Labrador+nl</t>
+  </si>
+  <si>
+    <t>Nova-Scotia+ns</t>
+  </si>
+  <si>
+    <t>Northwest-Territories+nt</t>
+  </si>
+  <si>
+    <t>Prince-Edward-Island+pe</t>
   </si>
 </sst>
 </file>
@@ -348,13 +384,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -366,6 +405,66 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Scrapy/yellowpages/where.xlsx
+++ b/Scrapy/yellowpages/where.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\leadgeneration\yp-scraper\Scrapy\yellowpages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\leadgeneration\mywork\lead_generation\Scrapy\yellowpages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4FCD56-F865-4B9A-A016-0EB0E5C1ED83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF27A32-2D21-4324-834A-CDF4AAF3F199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>where</t>
   </si>
@@ -384,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -395,73 +395,76 @@
     <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
         <v>7</v>
       </c>
     </row>
